--- a/biology/Botanique/Disa_cardinalis/Disa_cardinalis.xlsx
+++ b/biology/Botanique/Disa_cardinalis/Disa_cardinalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Disa cardinalis est une espèce de la famille des Orchidaceae que l’on trouve en Afrique du Sud (Riversdale)[1],[2].
-L’aire de répartition naturelle de cette espèce est le sud de la province du Cap (N. Langeberg). C’est un géophyte tubéreux qui pousse principalement dans le biome subtropical[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Disa cardinalis est une espèce de la famille des Orchidaceae que l’on trouve en Afrique du Sud (Riversdale),.
+L’aire de répartition naturelle de cette espèce est le sud de la province du Cap (N. Langeberg). C’est un géophyte tubéreux qui pousse principalement dans le biome subtropical.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les inflorescences de Disa cardinalis portent jusqu'à 25 fleurs rouge vif de taille moyenne. Ces fleurs sont disposées de manière régulière sur une tige assez longue[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences de Disa cardinalis portent jusqu'à 25 fleurs rouge vif de taille moyenne. Ces fleurs sont disposées de manière régulière sur une tige assez longue.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Disa cardinalis H.P.Linder[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Disa cardinalis H.P.Linder.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Disa cardinalis est une orchidée terrestre rare. Une collection de Disa comprenant Disa cardinalis a été labellisée par le CCVS en Bretagne[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Disa cardinalis est une orchidée terrestre rare. Une collection de Disa comprenant Disa cardinalis a été labellisée par le CCVS en Bretagne
 </t>
         </is>
       </c>
